--- a/individual_case_outputs/harvard/536.xlsx
+++ b/individual_case_outputs/harvard/536.xlsx
@@ -592,7 +592,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>back pain</t>
+          <t>herniated disc</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +603,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>back pain</t>
+          <t>degenerative disc disease</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -616,7 +616,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>back pain</t>
+          <t>lumbar herniated disk</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>back pain</t>
+          <t>degenerative disc disease</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -646,7 +646,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>back pain</t>
+          <t>herniated disc</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -733,7 +733,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>back pain</t>
+          <t>lumbar spinal stenosis</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
